--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,27 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
@@ -73,48 +76,42 @@
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -146,6 +140,9 @@
   </si>
   <si>
     <t>excellent</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
@@ -530,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.734375</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.6559139784946236</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7096774193548387</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C6">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,16 +767,16 @@
         <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.5849056603773585</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7087378640776699</v>
+        <v>0.734375</v>
       </c>
       <c r="C7">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.676056338028169</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.3396226415094339</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L8">
-        <v>414</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>415</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>805</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.668918918918919</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C9">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.2912482065997131</v>
+        <v>0.3385245901639344</v>
       </c>
       <c r="L9">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="M9">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>494</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.2593360995850623</v>
+        <v>0.3084648493543759</v>
       </c>
       <c r="L10">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="M10">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>357</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6050420168067226</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.2583333333333334</v>
+        <v>0.2863070539419087</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>89</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5014492753623189</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C12">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.2289156626506024</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4337349397590362</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>168</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K13">
-        <v>0.1590214067278287</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L13">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>275</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4315789473684211</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1167,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>45</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>0.1651376146788991</v>
+      </c>
+      <c r="L14">
         <v>54</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14">
-        <v>0.08238387379491674</v>
-      </c>
-      <c r="L14">
-        <v>94</v>
-      </c>
       <c r="M14">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1047</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1199,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3937007874015748</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1217,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.027255029201817</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1499</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1246,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3514851485148515</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C16">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1267,7 +1264,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>131</v>
+        <v>58</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>0.02920181700194679</v>
+      </c>
+      <c r="L16">
+        <v>45</v>
+      </c>
+      <c r="M16">
+        <v>45</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1496</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1275,13 +1296,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3483146067415731</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1293,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1301,13 +1322,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.296875</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1319,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1327,13 +1348,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2890995260663507</v>
+        <v>0.3203125</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1345,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1353,13 +1374,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.264957264957265</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1371,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1379,13 +1400,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2319587628865979</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1397,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1405,13 +1426,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.21</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1423,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>158</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1431,13 +1452,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1956521739130435</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1449,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1457,13 +1478,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1740506329113924</v>
+        <v>0.165</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1475,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>261</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1483,13 +1504,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1708860759493671</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1501,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1509,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1661721068249258</v>
+        <v>0.1617210682492582</v>
       </c>
       <c r="C26">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D26">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1527,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1535,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1588785046728972</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1553,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>180</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1561,13 +1582,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.13215859030837</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1579,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>394</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1587,13 +1608,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1120689655172414</v>
+        <v>0.1041095890410959</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1605,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>309</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1613,13 +1634,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09041095890410959</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1631,59 +1652,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.06904231625835189</v>
-      </c>
-      <c r="C31">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.05601317957166392</v>
-      </c>
-      <c r="C32">
-        <v>34</v>
-      </c>
-      <c r="D32">
-        <v>35</v>
-      </c>
-      <c r="E32">
-        <v>0.03</v>
-      </c>
-      <c r="F32">
-        <v>0.97</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
